--- a/xlsx/form_n_devolucao.xlsx
+++ b/xlsx/form_n_devolucao.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23426"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Terra_Share\projects\CaVaTeCo_Collect\projects\odk_forms_cesc_niassa\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Terra_Share\projects\CaVaTeCo_Collect\projects\monitor_forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C033F7C-307B-4566-AF4C-2F92BD0C9A5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BAF7442-676C-4A38-A8E2-034FDEE2729E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1426" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1424" uniqueCount="290">
   <si>
     <t>type</t>
   </si>
@@ -579,9 +579,6 @@
   </si>
   <si>
     <t>assoc_name</t>
-  </si>
-  <si>
-    <t>Outra associação (não está na lista)</t>
   </si>
   <si>
     <t>name_id_key</t>
@@ -901,6 +898,9 @@
     <t>languages</t>
   </si>
   <si>
+    <t>"CESC Niassa"</t>
+  </si>
+  <si>
     <t>search('enum_names_cesc_niassa')</t>
   </si>
   <si>
@@ -908,9 +908,6 @@
   </si>
   <si>
     <t>http://cavateco.terrafirma.co.mz:8080/cesc_niassa/submission</t>
-  </si>
-  <si>
-    <t>"CESC Niassa"</t>
   </si>
 </sst>
 </file>
@@ -2168,8 +2165,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S124"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D92" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C92" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="L109" sqref="L109"/>
@@ -2236,7 +2233,7 @@
         <v>10</v>
       </c>
       <c r="M1" s="13" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N1" s="11" t="s">
         <v>11</v>
@@ -2245,7 +2242,7 @@
         <v>12</v>
       </c>
       <c r="P1" s="11" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="Q1" s="11" t="s">
         <v>13</v>
@@ -2254,7 +2251,7 @@
         <v>36</v>
       </c>
       <c r="S1" s="75" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="3" spans="1:19" s="41" customFormat="1" x14ac:dyDescent="0.25">
@@ -2281,10 +2278,10 @@
         <v>104</v>
       </c>
       <c r="B5" s="60" t="s">
+        <v>185</v>
+      </c>
+      <c r="N5" s="59" t="s">
         <v>186</v>
-      </c>
-      <c r="N5" s="59" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:19" s="70" customFormat="1" x14ac:dyDescent="0.25">
@@ -2292,10 +2289,10 @@
         <v>104</v>
       </c>
       <c r="B6" s="71" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="N6" s="72" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="7" spans="1:19" s="41" customFormat="1" x14ac:dyDescent="0.25">
@@ -2314,7 +2311,7 @@
         <v>23</v>
       </c>
       <c r="B8" s="44" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C8" s="2"/>
       <c r="L8" s="41" t="s">
@@ -2329,7 +2326,7 @@
         <v>115</v>
       </c>
       <c r="O9" s="70" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="P9" s="70"/>
     </row>
@@ -2341,7 +2338,7 @@
         <v>116</v>
       </c>
       <c r="C10" s="73" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="11" spans="1:19" s="41" customFormat="1" x14ac:dyDescent="0.25">
@@ -2358,7 +2355,7 @@
         <v>45</v>
       </c>
       <c r="C12" s="73" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="13" spans="1:19" s="59" customFormat="1" x14ac:dyDescent="0.25">
@@ -2383,13 +2380,13 @@
         <v>23</v>
       </c>
       <c r="B14" s="44" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>119</v>
       </c>
       <c r="G14" s="59" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="L14" s="41" t="s">
         <v>31</v>
@@ -2511,13 +2508,13 @@
     </row>
     <row r="22" spans="1:19" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="59" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B22" s="58" t="s">
         <v>108</v>
       </c>
       <c r="C22" s="59" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J22" s="59" t="s">
         <v>22</v>
@@ -2562,24 +2559,24 @@
         <v>44</v>
       </c>
       <c r="B25" s="71" t="s">
+        <v>237</v>
+      </c>
+      <c r="C25" s="74" t="s">
         <v>238</v>
-      </c>
-      <c r="C25" s="74" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="26" spans="1:19" s="70" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="70" t="s">
+        <v>239</v>
+      </c>
+      <c r="B26" s="71" t="s">
         <v>240</v>
       </c>
-      <c r="B26" s="71" t="s">
+      <c r="C26" s="74" t="s">
         <v>241</v>
       </c>
-      <c r="C26" s="74" t="s">
-        <v>242</v>
-      </c>
       <c r="D26" s="70" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="27" spans="1:19" s="70" customFormat="1" x14ac:dyDescent="0.25">
@@ -2587,16 +2584,16 @@
         <v>29</v>
       </c>
       <c r="B27" s="71" t="s">
+        <v>242</v>
+      </c>
+      <c r="C27" s="76" t="s">
         <v>243</v>
       </c>
-      <c r="C27" s="76" t="s">
+      <c r="G27" s="76" t="s">
         <v>244</v>
       </c>
-      <c r="G27" s="76" t="s">
+      <c r="P27" s="76" t="s">
         <v>245</v>
-      </c>
-      <c r="P27" s="76" t="s">
-        <v>246</v>
       </c>
       <c r="Q27" s="76"/>
       <c r="R27" s="76"/>
@@ -2609,16 +2606,16 @@
         <v>29</v>
       </c>
       <c r="B28" s="71" t="s">
+        <v>246</v>
+      </c>
+      <c r="C28" s="76" t="s">
+        <v>243</v>
+      </c>
+      <c r="G28" s="76" t="s">
         <v>247</v>
       </c>
-      <c r="C28" s="76" t="s">
-        <v>244</v>
-      </c>
-      <c r="G28" s="76" t="s">
+      <c r="P28" s="76" t="s">
         <v>248</v>
-      </c>
-      <c r="P28" s="76" t="s">
-        <v>249</v>
       </c>
       <c r="Q28" s="76"/>
       <c r="R28" s="76"/>
@@ -2631,16 +2628,16 @@
         <v>29</v>
       </c>
       <c r="B29" s="71" t="s">
+        <v>249</v>
+      </c>
+      <c r="C29" s="76" t="s">
+        <v>243</v>
+      </c>
+      <c r="G29" s="76" t="s">
         <v>250</v>
       </c>
-      <c r="C29" s="76" t="s">
-        <v>244</v>
-      </c>
-      <c r="G29" s="76" t="s">
+      <c r="P29" s="76" t="s">
         <v>251</v>
-      </c>
-      <c r="P29" s="76" t="s">
-        <v>252</v>
       </c>
       <c r="Q29" s="76"/>
       <c r="R29" s="76"/>
@@ -2653,16 +2650,16 @@
         <v>29</v>
       </c>
       <c r="B30" s="71" t="s">
+        <v>252</v>
+      </c>
+      <c r="C30" s="76" t="s">
+        <v>243</v>
+      </c>
+      <c r="G30" s="76" t="s">
         <v>253</v>
       </c>
-      <c r="C30" s="76" t="s">
-        <v>244</v>
-      </c>
-      <c r="G30" s="76" t="s">
+      <c r="P30" s="76" t="s">
         <v>254</v>
-      </c>
-      <c r="P30" s="76" t="s">
-        <v>255</v>
       </c>
       <c r="Q30" s="76"/>
       <c r="R30" s="76"/>
@@ -2675,16 +2672,16 @@
         <v>29</v>
       </c>
       <c r="B31" s="71" t="s">
+        <v>255</v>
+      </c>
+      <c r="C31" s="76" t="s">
+        <v>243</v>
+      </c>
+      <c r="G31" s="76" t="s">
         <v>256</v>
       </c>
-      <c r="C31" s="76" t="s">
-        <v>244</v>
-      </c>
-      <c r="G31" s="76" t="s">
-        <v>257</v>
-      </c>
       <c r="P31" s="76" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="Q31" s="76"/>
       <c r="R31" s="76"/>
@@ -2697,16 +2694,16 @@
         <v>29</v>
       </c>
       <c r="B32" s="71" t="s">
+        <v>257</v>
+      </c>
+      <c r="C32" s="76" t="s">
+        <v>243</v>
+      </c>
+      <c r="G32" s="76" t="s">
         <v>258</v>
       </c>
-      <c r="C32" s="76" t="s">
-        <v>244</v>
-      </c>
-      <c r="G32" s="76" t="s">
-        <v>259</v>
-      </c>
       <c r="P32" s="76" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="Q32" s="76"/>
       <c r="R32" s="76"/>
@@ -2719,16 +2716,16 @@
         <v>29</v>
       </c>
       <c r="B33" s="71" t="s">
+        <v>259</v>
+      </c>
+      <c r="C33" s="76" t="s">
+        <v>243</v>
+      </c>
+      <c r="G33" s="76" t="s">
         <v>260</v>
       </c>
-      <c r="C33" s="76" t="s">
-        <v>244</v>
-      </c>
-      <c r="G33" s="76" t="s">
-        <v>261</v>
-      </c>
       <c r="P33" s="76" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="Q33" s="76"/>
       <c r="R33" s="76"/>
@@ -2741,16 +2738,16 @@
         <v>29</v>
       </c>
       <c r="B34" s="71" t="s">
+        <v>261</v>
+      </c>
+      <c r="C34" s="76" t="s">
+        <v>243</v>
+      </c>
+      <c r="G34" s="76" t="s">
         <v>262</v>
       </c>
-      <c r="C34" s="76" t="s">
-        <v>244</v>
-      </c>
-      <c r="G34" s="76" t="s">
-        <v>263</v>
-      </c>
       <c r="P34" s="76" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="Q34" s="76"/>
       <c r="R34" s="76"/>
@@ -2763,16 +2760,16 @@
         <v>29</v>
       </c>
       <c r="B35" s="71" t="s">
+        <v>263</v>
+      </c>
+      <c r="C35" s="76" t="s">
+        <v>243</v>
+      </c>
+      <c r="G35" s="76" t="s">
         <v>264</v>
       </c>
-      <c r="C35" s="76" t="s">
-        <v>244</v>
-      </c>
-      <c r="G35" s="76" t="s">
-        <v>265</v>
-      </c>
       <c r="P35" s="76" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="Q35" s="76"/>
       <c r="R35" s="76"/>
@@ -2785,16 +2782,16 @@
         <v>29</v>
       </c>
       <c r="B36" s="71" t="s">
+        <v>265</v>
+      </c>
+      <c r="C36" s="76" t="s">
+        <v>243</v>
+      </c>
+      <c r="G36" s="76" t="s">
         <v>266</v>
       </c>
-      <c r="C36" s="76" t="s">
-        <v>244</v>
-      </c>
-      <c r="G36" s="76" t="s">
-        <v>267</v>
-      </c>
       <c r="P36" s="76" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="Q36" s="76"/>
       <c r="R36" s="76"/>
@@ -2807,16 +2804,16 @@
         <v>29</v>
       </c>
       <c r="B37" s="71" t="s">
+        <v>267</v>
+      </c>
+      <c r="C37" s="76" t="s">
+        <v>243</v>
+      </c>
+      <c r="G37" s="76" t="s">
         <v>268</v>
       </c>
-      <c r="C37" s="76" t="s">
-        <v>244</v>
-      </c>
-      <c r="G37" s="76" t="s">
-        <v>269</v>
-      </c>
       <c r="P37" s="76" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="Q37" s="76"/>
       <c r="R37" s="76"/>
@@ -2829,16 +2826,16 @@
         <v>29</v>
       </c>
       <c r="B38" s="71" t="s">
+        <v>269</v>
+      </c>
+      <c r="C38" s="76" t="s">
+        <v>243</v>
+      </c>
+      <c r="G38" s="76" t="s">
         <v>270</v>
       </c>
-      <c r="C38" s="76" t="s">
-        <v>244</v>
-      </c>
-      <c r="G38" s="76" t="s">
-        <v>271</v>
-      </c>
       <c r="P38" s="76" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="Q38" s="76"/>
       <c r="R38" s="76"/>
@@ -2854,7 +2851,7 @@
         <v>37</v>
       </c>
       <c r="C39" s="70" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J39" s="70" t="s">
         <v>22</v>
@@ -2863,7 +2860,7 @@
         <v>37</v>
       </c>
       <c r="M39" s="46" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="40" spans="1:19" s="22" customFormat="1" x14ac:dyDescent="0.25">
@@ -2871,7 +2868,7 @@
         <v>23</v>
       </c>
       <c r="B40" s="34" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C40" s="22" t="s">
         <v>49</v>
@@ -2910,7 +2907,7 @@
     </row>
     <row r="43" spans="1:19" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="59" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B43" s="42" t="s">
         <v>129</v>
@@ -2919,7 +2916,7 @@
         <v>65</v>
       </c>
       <c r="D43" s="59" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J43" s="41" t="s">
         <v>22</v>
@@ -2936,7 +2933,7 @@
     </row>
     <row r="45" spans="1:19" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="59" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B45" s="51" t="s">
         <v>171</v>
@@ -2945,7 +2942,7 @@
         <v>130</v>
       </c>
       <c r="D45" s="59" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J45" s="41" t="s">
         <v>22</v>
@@ -2959,7 +2956,7 @@
         <v>23</v>
       </c>
       <c r="B46" s="34" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C46" s="48" t="s">
         <v>157</v>
@@ -2987,7 +2984,7 @@
     </row>
     <row r="48" spans="1:19" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="59" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B48" s="42" t="s">
         <v>133</v>
@@ -2996,7 +2993,7 @@
         <v>66</v>
       </c>
       <c r="D48" s="59" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G48" s="52" t="s">
         <v>173</v>
@@ -3016,7 +3013,7 @@
         <v>23</v>
       </c>
       <c r="B50" s="44" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>53</v>
@@ -3027,7 +3024,7 @@
     </row>
     <row r="51" spans="1:12" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="59" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B51" s="42" t="s">
         <v>134</v>
@@ -3036,7 +3033,7 @@
         <v>50</v>
       </c>
       <c r="D51" s="59" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J51" s="41" t="s">
         <v>22</v>
@@ -3109,7 +3106,7 @@
     </row>
     <row r="56" spans="1:12" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="59" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B56" s="42" t="s">
         <v>145</v>
@@ -3118,7 +3115,7 @@
         <v>146</v>
       </c>
       <c r="D56" s="59" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="57" spans="1:12" s="41" customFormat="1" x14ac:dyDescent="0.25">
@@ -3242,16 +3239,16 @@
     </row>
     <row r="67" spans="1:19" s="70" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="70" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B67" s="71" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C67" s="74" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D67" s="70" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="68" spans="1:19" s="70" customFormat="1" x14ac:dyDescent="0.25">
@@ -3259,16 +3256,16 @@
         <v>29</v>
       </c>
       <c r="B68" s="71" t="s">
+        <v>242</v>
+      </c>
+      <c r="C68" s="76" t="s">
         <v>243</v>
       </c>
-      <c r="C68" s="76" t="s">
-        <v>244</v>
-      </c>
       <c r="G68" s="76" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="P68" s="76" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="Q68" s="76"/>
       <c r="R68" s="76"/>
@@ -3281,16 +3278,16 @@
         <v>29</v>
       </c>
       <c r="B69" s="71" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C69" s="76" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G69" s="76" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="P69" s="76" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="Q69" s="76"/>
       <c r="R69" s="76"/>
@@ -3303,16 +3300,16 @@
         <v>29</v>
       </c>
       <c r="B70" s="71" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C70" s="76" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G70" s="76" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="P70" s="76" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="Q70" s="76"/>
       <c r="R70" s="76"/>
@@ -3325,16 +3322,16 @@
         <v>29</v>
       </c>
       <c r="B71" s="71" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C71" s="76" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G71" s="76" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="P71" s="76" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Q71" s="76"/>
       <c r="R71" s="76"/>
@@ -3347,16 +3344,16 @@
         <v>29</v>
       </c>
       <c r="B72" s="71" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C72" s="76" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G72" s="76" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="P72" s="76" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="Q72" s="76"/>
       <c r="R72" s="76"/>
@@ -3369,16 +3366,16 @@
         <v>29</v>
       </c>
       <c r="B73" s="71" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C73" s="76" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G73" s="76" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="P73" s="76" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="Q73" s="76"/>
       <c r="R73" s="76"/>
@@ -3391,16 +3388,16 @@
         <v>29</v>
       </c>
       <c r="B74" s="71" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C74" s="76" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G74" s="76" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P74" s="76" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="Q74" s="76"/>
       <c r="R74" s="76"/>
@@ -3413,16 +3410,16 @@
         <v>29</v>
       </c>
       <c r="B75" s="71" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C75" s="76" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G75" s="76" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="P75" s="76" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="Q75" s="76"/>
       <c r="R75" s="76"/>
@@ -3435,16 +3432,16 @@
         <v>29</v>
       </c>
       <c r="B76" s="71" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C76" s="76" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G76" s="76" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="P76" s="76" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="Q76" s="76"/>
       <c r="R76" s="76"/>
@@ -3457,16 +3454,16 @@
         <v>29</v>
       </c>
       <c r="B77" s="71" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C77" s="76" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G77" s="76" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="P77" s="76" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="Q77" s="76"/>
       <c r="R77" s="76"/>
@@ -3479,16 +3476,16 @@
         <v>29</v>
       </c>
       <c r="B78" s="71" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C78" s="76" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G78" s="76" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="P78" s="76" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="Q78" s="76"/>
       <c r="R78" s="76"/>
@@ -3501,16 +3498,16 @@
         <v>29</v>
       </c>
       <c r="B79" s="71" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C79" s="76" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G79" s="76" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="P79" s="76" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="Q79" s="76"/>
       <c r="R79" s="76"/>
@@ -3526,7 +3523,7 @@
         <v>37</v>
       </c>
       <c r="C80" s="70" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J80" s="70" t="s">
         <v>22</v>
@@ -3535,7 +3532,7 @@
         <v>37</v>
       </c>
       <c r="M80" s="46" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="81" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.25">
@@ -3543,7 +3540,7 @@
         <v>23</v>
       </c>
       <c r="B81" s="34" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C81" s="22" t="s">
         <v>49</v>
@@ -3582,7 +3579,7 @@
     </row>
     <row r="84" spans="1:12" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="61" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B84" s="47" t="s">
         <v>129</v>
@@ -3591,7 +3588,7 @@
         <v>65</v>
       </c>
       <c r="D84" s="59" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J84" s="48" t="s">
         <v>22</v>
@@ -3608,7 +3605,7 @@
     </row>
     <row r="86" spans="1:12" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="61" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B86" s="53" t="s">
         <v>174</v>
@@ -3617,7 +3614,7 @@
         <v>130</v>
       </c>
       <c r="D86" s="59" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J86" s="48" t="s">
         <v>22</v>
@@ -3631,7 +3628,7 @@
         <v>23</v>
       </c>
       <c r="B87" s="34" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C87" s="48" t="s">
         <v>157</v>
@@ -3659,7 +3656,7 @@
     </row>
     <row r="89" spans="1:12" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="61" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B89" s="47" t="s">
         <v>133</v>
@@ -3668,7 +3665,7 @@
         <v>66</v>
       </c>
       <c r="D89" s="59" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G89" s="54" t="s">
         <v>176</v>
@@ -3688,7 +3685,7 @@
         <v>23</v>
       </c>
       <c r="B91" s="34" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C91" s="15" t="s">
         <v>53</v>
@@ -3699,7 +3696,7 @@
     </row>
     <row r="92" spans="1:12" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="61" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B92" s="47" t="s">
         <v>134</v>
@@ -3708,7 +3705,7 @@
         <v>50</v>
       </c>
       <c r="D92" s="59" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J92" s="48" t="s">
         <v>22</v>
@@ -3781,7 +3778,7 @@
     </row>
     <row r="97" spans="1:13" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="61" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B97" s="47" t="s">
         <v>145</v>
@@ -3790,7 +3787,7 @@
         <v>146</v>
       </c>
       <c r="D97" s="59" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="98" spans="1:13" s="48" customFormat="1" x14ac:dyDescent="0.25">
@@ -3813,7 +3810,7 @@
         <v>22</v>
       </c>
       <c r="M99" s="46" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="100" spans="1:13" s="48" customFormat="1" x14ac:dyDescent="0.25">
@@ -3830,7 +3827,7 @@
         <v>22</v>
       </c>
       <c r="M100" s="46" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="101" spans="1:13" s="48" customFormat="1" x14ac:dyDescent="0.25">
@@ -3844,7 +3841,7 @@
         <v>152</v>
       </c>
       <c r="M101" s="46" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="102" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.25">
@@ -3949,7 +3946,7 @@
         <v>23</v>
       </c>
       <c r="B109" s="44" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>53</v>
@@ -3960,7 +3957,7 @@
     </row>
     <row r="110" spans="1:13" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="59" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B110" s="42" t="s">
         <v>134</v>
@@ -3969,7 +3966,7 @@
         <v>50</v>
       </c>
       <c r="D110" s="59" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J110" s="41" t="s">
         <v>22</v>
@@ -4042,7 +4039,7 @@
     </row>
     <row r="115" spans="1:13" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="59" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B115" s="42" t="s">
         <v>145</v>
@@ -4051,7 +4048,7 @@
         <v>146</v>
       </c>
       <c r="D115" s="59" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="116" spans="1:13" s="41" customFormat="1" x14ac:dyDescent="0.25">
@@ -4074,7 +4071,7 @@
         <v>22</v>
       </c>
       <c r="M117" s="46" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="118" spans="1:13" s="41" customFormat="1" x14ac:dyDescent="0.25">
@@ -4108,7 +4105,7 @@
         <v>22</v>
       </c>
       <c r="M119" s="46" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="120" spans="1:13" s="41" customFormat="1" x14ac:dyDescent="0.25">
@@ -4122,7 +4119,7 @@
         <v>152</v>
       </c>
       <c r="M120" s="46" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="121" spans="1:13" s="41" customFormat="1" x14ac:dyDescent="0.25">
@@ -4184,7 +4181,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C26" sqref="C26"/>
+      <selection pane="bottomRight" activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4349,15 +4346,9 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="56" t="s">
-        <v>109</v>
-      </c>
-      <c r="B17" s="58">
-        <v>1</v>
-      </c>
-      <c r="C17" s="56" t="s">
-        <v>182</v>
-      </c>
+      <c r="A17" s="56"/>
+      <c r="B17" s="58"/>
+      <c r="C17" s="56"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="56"/>
@@ -4369,10 +4360,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="57" t="s">
+        <v>182</v>
+      </c>
+      <c r="C19" s="56" t="s">
         <v>183</v>
-      </c>
-      <c r="C19" s="56" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -4383,7 +4374,7 @@
         <v>1</v>
       </c>
       <c r="C20" s="56" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -4433,7 +4424,7 @@
         <v>111</v>
       </c>
       <c r="G1" s="62" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -7517,25 +7508,25 @@
     </row>
     <row r="584" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A584" s="62" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B584" s="64"/>
     </row>
     <row r="585" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A585" s="62" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B585" s="64"/>
     </row>
     <row r="586" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A586" s="62" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B586" s="64"/>
     </row>
     <row r="587" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A587" s="62" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B587" s="64"/>
     </row>
@@ -7544,19 +7535,19 @@
     </row>
     <row r="589" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A589" s="62" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B589" s="64"/>
     </row>
     <row r="590" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A590" s="62" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B590" s="64"/>
     </row>
     <row r="591" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A591" s="62" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B591" s="64"/>
     </row>
@@ -7691,31 +7682,31 @@
     </row>
     <row r="616" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A616" s="62" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B616" s="64"/>
     </row>
     <row r="617" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A617" s="62" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B617" s="64"/>
     </row>
     <row r="618" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A618" s="62" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B618" s="64"/>
     </row>
     <row r="619" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A619" s="62" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B619" s="64"/>
     </row>
     <row r="620" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A620" s="62" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B620" s="64"/>
     </row>
@@ -7724,131 +7715,131 @@
     </row>
     <row r="622" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A622" s="62" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B622" s="64"/>
     </row>
     <row r="623" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A623" s="62" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B623" s="64"/>
     </row>
     <row r="626" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A626" s="65" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B626" s="64"/>
       <c r="C626" s="65"/>
     </row>
     <row r="627" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A627" s="65" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B627" s="64"/>
       <c r="C627" s="65"/>
     </row>
     <row r="628" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A628" s="65" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B628" s="64"/>
       <c r="C628" s="65"/>
     </row>
     <row r="629" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A629" s="65" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B629" s="64"/>
       <c r="C629" s="65"/>
     </row>
     <row r="630" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A630" s="65" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B630" s="64"/>
       <c r="C630" s="65"/>
     </row>
     <row r="631" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A631" s="65" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B631" s="64"/>
       <c r="C631" s="65"/>
     </row>
     <row r="632" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A632" s="65" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B632" s="64"/>
       <c r="C632" s="65"/>
     </row>
     <row r="633" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A633" s="65" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B633" s="64"/>
       <c r="C633" s="65"/>
     </row>
     <row r="634" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A634" s="65" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B634" s="64"/>
       <c r="C634" s="65"/>
     </row>
     <row r="635" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A635" s="65" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B635" s="64"/>
       <c r="C635" s="65"/>
     </row>
     <row r="636" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A636" s="65" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B636" s="64"/>
       <c r="C636" s="65"/>
     </row>
     <row r="637" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A637" s="65" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B637" s="64"/>
       <c r="C637" s="65"/>
     </row>
     <row r="638" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A638" s="65" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B638" s="64"/>
       <c r="C638" s="65"/>
     </row>
     <row r="639" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A639" s="65" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B639" s="64"/>
       <c r="C639" s="65"/>
     </row>
     <row r="640" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A640" s="65" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B640" s="64"/>
       <c r="C640" s="65"/>
     </row>
     <row r="641" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A641" s="65" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B641" s="64"/>
       <c r="C641" s="65"/>
     </row>
     <row r="642" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A642" s="65" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B642" s="64"/>
       <c r="C642" s="65"/>
@@ -7860,168 +7851,168 @@
     </row>
     <row r="644" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A644" s="65" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B644" s="66"/>
       <c r="C644" s="65"/>
     </row>
     <row r="645" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A645" s="65" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B645" s="66"/>
       <c r="C645" s="65"/>
     </row>
     <row r="647" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A647" s="65" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B647" s="64"/>
       <c r="C647" s="65"/>
     </row>
     <row r="648" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A648" s="65" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B648" s="64"/>
       <c r="C648" s="65"/>
     </row>
     <row r="649" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A649" s="65" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B649" s="64"/>
       <c r="C649" s="65"/>
     </row>
     <row r="650" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A650" s="65" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B650" s="64"/>
       <c r="C650" s="65"/>
     </row>
     <row r="651" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A651" s="65" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B651" s="64"/>
       <c r="C651" s="65"/>
     </row>
     <row r="652" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A652" s="65" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B652" s="64"/>
       <c r="C652" s="65"/>
     </row>
     <row r="653" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A653" s="65" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B653" s="64"/>
       <c r="C653" s="65"/>
     </row>
     <row r="654" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A654" s="65" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B654" s="64"/>
       <c r="C654" s="65"/>
     </row>
     <row r="655" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A655" s="65" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B655" s="64"/>
       <c r="C655" s="65"/>
     </row>
     <row r="656" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A656" s="65" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B656" s="64"/>
       <c r="C656" s="65"/>
     </row>
     <row r="657" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A657" s="65" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B657" s="64"/>
       <c r="C657" s="65"/>
     </row>
     <row r="658" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A658" s="65" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B658" s="64"/>
       <c r="C658" s="65"/>
     </row>
     <row r="659" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A659" s="65" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B659" s="64"/>
       <c r="C659" s="65"/>
     </row>
     <row r="660" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A660" s="65" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B660" s="64"/>
       <c r="C660" s="65"/>
     </row>
     <row r="661" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A661" s="65" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B661" s="64"/>
       <c r="C661" s="65"/>
     </row>
     <row r="662" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A662" s="65" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B662" s="64"/>
       <c r="C662" s="65"/>
     </row>
     <row r="663" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A663" s="65" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B663" s="64"/>
       <c r="C663" s="65"/>
     </row>
     <row r="664" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A664" s="65" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B664" s="64"/>
       <c r="C664" s="65"/>
     </row>
     <row r="665" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A665" s="65" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B665" s="64"/>
       <c r="C665" s="65"/>
     </row>
     <row r="668" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A668" s="65" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B668" s="64"/>
       <c r="C668" s="65"/>
     </row>
     <row r="669" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A669" s="65" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B669" s="64"/>
       <c r="C669" s="65"/>
     </row>
     <row r="670" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A670" s="65" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B670" s="64"/>
       <c r="C670" s="65"/>
@@ -8038,483 +8029,483 @@
     </row>
     <row r="673" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A673" s="65" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B673" s="64"/>
       <c r="C673" s="65"/>
     </row>
     <row r="674" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A674" s="65" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B674" s="64"/>
       <c r="C674" s="65"/>
     </row>
     <row r="675" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A675" s="65" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B675" s="64"/>
       <c r="C675" s="65"/>
     </row>
     <row r="676" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A676" s="65" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B676" s="64"/>
       <c r="C676" s="65"/>
     </row>
     <row r="677" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A677" s="65" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B677" s="64"/>
       <c r="C677" s="65"/>
     </row>
     <row r="678" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A678" s="65" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B678" s="64"/>
       <c r="C678" s="65"/>
     </row>
     <row r="679" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A679" s="65" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B679" s="64"/>
       <c r="C679" s="65"/>
     </row>
     <row r="680" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A680" s="65" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B680" s="64"/>
       <c r="C680" s="65"/>
     </row>
     <row r="681" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A681" s="65" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B681" s="64"/>
       <c r="C681" s="65"/>
     </row>
     <row r="682" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A682" s="65" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B682" s="64"/>
       <c r="C682" s="65"/>
     </row>
     <row r="684" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A684" s="65" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B684" s="64"/>
       <c r="C684" s="65"/>
     </row>
     <row r="685" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A685" s="65" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B685" s="64"/>
       <c r="C685" s="65"/>
     </row>
     <row r="686" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A686" s="65" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B686" s="64"/>
       <c r="C686" s="65"/>
     </row>
     <row r="687" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A687" s="65" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B687" s="64"/>
       <c r="C687" s="65"/>
     </row>
     <row r="688" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A688" s="65" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B688" s="64"/>
       <c r="C688" s="65"/>
     </row>
     <row r="689" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A689" s="65" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B689" s="64"/>
       <c r="C689" s="65"/>
     </row>
     <row r="690" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A690" s="65" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B690" s="64"/>
       <c r="C690" s="65"/>
     </row>
     <row r="691" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A691" s="65" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B691" s="64"/>
       <c r="C691" s="65"/>
     </row>
     <row r="692" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A692" s="65" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B692" s="64"/>
       <c r="C692" s="65"/>
     </row>
     <row r="693" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A693" s="65" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B693" s="64"/>
       <c r="C693" s="65"/>
     </row>
     <row r="694" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A694" s="65" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B694" s="64"/>
       <c r="C694" s="65"/>
     </row>
     <row r="696" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A696" s="65" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B696" s="64"/>
       <c r="C696" s="65"/>
     </row>
     <row r="697" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A697" s="65" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B697" s="64"/>
       <c r="C697" s="65"/>
     </row>
     <row r="698" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A698" s="65" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B698" s="64"/>
       <c r="C698" s="65"/>
     </row>
     <row r="699" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A699" s="65" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B699" s="64"/>
       <c r="C699" s="65"/>
     </row>
     <row r="700" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A700" s="65" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B700" s="64"/>
       <c r="C700" s="65"/>
     </row>
     <row r="701" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A701" s="65" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B701" s="64"/>
       <c r="C701" s="65"/>
     </row>
     <row r="702" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A702" s="65" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B702" s="64"/>
       <c r="C702" s="65"/>
     </row>
     <row r="703" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A703" s="65" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B703" s="64"/>
       <c r="C703" s="65"/>
     </row>
     <row r="704" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A704" s="65" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B704" s="64"/>
       <c r="C704" s="65"/>
     </row>
     <row r="705" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A705" s="65" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B705" s="64"/>
       <c r="C705" s="65"/>
     </row>
     <row r="706" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A706" s="65" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B706" s="64"/>
       <c r="C706" s="65"/>
     </row>
     <row r="707" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A707" s="65" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B707" s="64"/>
       <c r="C707" s="65"/>
     </row>
     <row r="709" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A709" s="65" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B709" s="64"/>
       <c r="C709" s="65"/>
     </row>
     <row r="710" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A710" s="65" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B710" s="64"/>
       <c r="C710" s="65"/>
     </row>
     <row r="711" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A711" s="65" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B711" s="64"/>
       <c r="C711" s="65"/>
     </row>
     <row r="712" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A712" s="65" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B712" s="64"/>
       <c r="C712" s="65"/>
     </row>
     <row r="714" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A714" s="65" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B714" s="64"/>
       <c r="C714" s="65"/>
     </row>
     <row r="715" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A715" s="65" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B715" s="64"/>
       <c r="C715" s="65"/>
     </row>
     <row r="716" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A716" s="65" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B716" s="64"/>
       <c r="C716" s="65"/>
     </row>
     <row r="717" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A717" s="65" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B717" s="64"/>
       <c r="C717" s="65"/>
     </row>
     <row r="718" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A718" s="65" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B718" s="64"/>
       <c r="C718" s="65"/>
     </row>
     <row r="719" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A719" s="65" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B719" s="64"/>
       <c r="C719" s="65"/>
     </row>
     <row r="720" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A720" s="65" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B720" s="64"/>
       <c r="C720" s="65"/>
     </row>
     <row r="721" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A721" s="65" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B721" s="64"/>
       <c r="C721" s="65"/>
     </row>
     <row r="722" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A722" s="65" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B722" s="64"/>
       <c r="C722" s="65"/>
     </row>
     <row r="723" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A723" s="65" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B723" s="64"/>
       <c r="C723" s="65"/>
     </row>
     <row r="724" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A724" s="65" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B724" s="64"/>
       <c r="C724" s="65"/>
     </row>
     <row r="725" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A725" s="65" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B725" s="64"/>
       <c r="C725" s="65"/>
     </row>
     <row r="726" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A726" s="65" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B726" s="64"/>
       <c r="C726" s="65"/>
     </row>
     <row r="727" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A727" s="65" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B727" s="64"/>
       <c r="C727" s="65"/>
     </row>
     <row r="728" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A728" s="65" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B728" s="64"/>
       <c r="C728" s="65"/>
     </row>
     <row r="729" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A729" s="65" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B729" s="64"/>
       <c r="C729" s="65"/>
     </row>
     <row r="730" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A730" s="65" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B730" s="64"/>
       <c r="C730" s="65"/>
     </row>
     <row r="731" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A731" s="65" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B731" s="64"/>
       <c r="C731" s="65"/>
     </row>
     <row r="732" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A732" s="65" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B732" s="64"/>
       <c r="C732" s="65"/>
     </row>
     <row r="733" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A733" s="65" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B733" s="64"/>
       <c r="C733" s="65"/>
     </row>
     <row r="734" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A734" s="65" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B734" s="64"/>
       <c r="C734" s="65"/>
     </row>
     <row r="735" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A735" s="65" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B735" s="64"/>
       <c r="C735" s="65"/>
     </row>
     <row r="736" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A736" s="65" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B736" s="64"/>
       <c r="C736" s="65"/>
     </row>
     <row r="737" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A737" s="65" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B737" s="64"/>
       <c r="C737" s="65"/>
     </row>
     <row r="738" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A738" s="65" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B738" s="64"/>
       <c r="C738" s="65"/>
     </row>
     <row r="739" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A739" s="65" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B739" s="64"/>
       <c r="C739" s="65"/>
     </row>
     <row r="740" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A740" s="65" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B740" s="64"/>
       <c r="C740" s="65"/>
     </row>
     <row r="742" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A742" s="65" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B742" s="64"/>
       <c r="C742" s="65"/>
     </row>
     <row r="743" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A743" s="65" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B743" s="64"/>
       <c r="C743" s="65"/>
     </row>
     <row r="744" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A744" s="65" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B744" s="64"/>
       <c r="C744" s="65"/>
     </row>
     <row r="745" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A745" s="65" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B745" s="64"/>
       <c r="C745" s="65"/>
     </row>
     <row r="746" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A746" s="65" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B746" s="64"/>
       <c r="C746" s="65"/>
@@ -8526,63 +8517,63 @@
     </row>
     <row r="748" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A748" s="65" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B748" s="64"/>
       <c r="C748" s="65"/>
     </row>
     <row r="749" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A749" s="65" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B749" s="64"/>
       <c r="C749" s="65"/>
     </row>
     <row r="750" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A750" s="65" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B750" s="64"/>
       <c r="C750" s="65"/>
     </row>
     <row r="751" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A751" s="65" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B751" s="64"/>
       <c r="C751" s="65"/>
     </row>
     <row r="752" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A752" s="65" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B752" s="64"/>
       <c r="C752" s="65"/>
     </row>
     <row r="753" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A753" s="65" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B753" s="64"/>
       <c r="C753" s="65"/>
     </row>
     <row r="754" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A754" s="65" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B754" s="64"/>
       <c r="C754" s="65"/>
     </row>
     <row r="755" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A755" s="65" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B755" s="64"/>
       <c r="C755" s="65"/>
     </row>
     <row r="756" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A756" s="65" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B756" s="64"/>
       <c r="C756" s="65"/>
@@ -8594,112 +8585,112 @@
     </row>
     <row r="758" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A758" s="65" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B758" s="64"/>
       <c r="C758" s="65"/>
     </row>
     <row r="759" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A759" s="65" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B759" s="64"/>
       <c r="C759" s="65"/>
     </row>
     <row r="760" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A760" s="65" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B760" s="64"/>
       <c r="C760" s="65"/>
     </row>
     <row r="761" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A761" s="65" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B761" s="64"/>
       <c r="C761" s="65"/>
     </row>
     <row r="762" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A762" s="65" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B762" s="64"/>
       <c r="C762" s="65"/>
     </row>
     <row r="763" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A763" s="65" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B763" s="64"/>
       <c r="C763" s="65"/>
     </row>
     <row r="764" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A764" s="65" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B764" s="64"/>
       <c r="C764" s="65"/>
     </row>
     <row r="765" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A765" s="65" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B765" s="64"/>
       <c r="C765" s="65"/>
     </row>
     <row r="766" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A766" s="65" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B766" s="64"/>
       <c r="C766" s="65"/>
     </row>
     <row r="767" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A767" s="65" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B767" s="64"/>
       <c r="C767" s="65"/>
     </row>
     <row r="768" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A768" s="65" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B768" s="64"/>
       <c r="C768" s="65"/>
     </row>
     <row r="769" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A769" s="65" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B769" s="64"/>
       <c r="C769" s="65"/>
     </row>
     <row r="770" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A770" s="65" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B770" s="64"/>
       <c r="C770" s="65"/>
     </row>
     <row r="771" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A771" s="65" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B771" s="64"/>
       <c r="C771" s="65"/>
     </row>
     <row r="772" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A772" s="65" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B772" s="64"/>
       <c r="C772" s="65"/>
     </row>
     <row r="773" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A773" s="65" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B773" s="64"/>
       <c r="C773" s="65"/>
@@ -8711,147 +8702,147 @@
     </row>
     <row r="775" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A775" s="65" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B775" s="64"/>
       <c r="C775" s="65"/>
     </row>
     <row r="776" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A776" s="65" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B776" s="64"/>
       <c r="C776" s="65"/>
     </row>
     <row r="777" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A777" s="65" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B777" s="64"/>
       <c r="C777" s="65"/>
     </row>
     <row r="778" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A778" s="65" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B778" s="64"/>
       <c r="C778" s="65"/>
     </row>
     <row r="779" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A779" s="65" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B779" s="64"/>
       <c r="C779" s="65"/>
     </row>
     <row r="780" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A780" s="65" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B780" s="64"/>
       <c r="C780" s="65"/>
     </row>
     <row r="781" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A781" s="65" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B781" s="64"/>
       <c r="C781" s="65"/>
     </row>
     <row r="782" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A782" s="65" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B782" s="64"/>
       <c r="C782" s="65"/>
     </row>
     <row r="783" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A783" s="65" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B783" s="64"/>
       <c r="C783" s="65"/>
     </row>
     <row r="784" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A784" s="65" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B784" s="64"/>
       <c r="C784" s="65"/>
     </row>
     <row r="785" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A785" s="65" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B785" s="64"/>
       <c r="C785" s="65"/>
     </row>
     <row r="786" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A786" s="65" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B786" s="64"/>
       <c r="C786" s="65"/>
     </row>
     <row r="787" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A787" s="65" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B787" s="64"/>
       <c r="C787" s="65"/>
     </row>
     <row r="788" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A788" s="65" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B788" s="64"/>
       <c r="C788" s="65"/>
     </row>
     <row r="789" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A789" s="65" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B789" s="64"/>
       <c r="C789" s="65"/>
     </row>
     <row r="790" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A790" s="65" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B790" s="64"/>
       <c r="C790" s="65"/>
     </row>
     <row r="791" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A791" s="65" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B791" s="64"/>
       <c r="C791" s="65"/>
     </row>
     <row r="792" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A792" s="65" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B792" s="64"/>
       <c r="C792" s="65"/>
     </row>
     <row r="793" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A793" s="65" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B793" s="64"/>
       <c r="C793" s="65"/>
     </row>
     <row r="794" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A794" s="65" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B794" s="64"/>
       <c r="C794" s="65"/>
     </row>
     <row r="795" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A795" s="65" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B795" s="64"/>
       <c r="C795" s="65"/>
@@ -8863,14 +8854,14 @@
     </row>
     <row r="797" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A797" s="65" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B797" s="64"/>
       <c r="C797" s="65"/>
     </row>
     <row r="798" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A798" s="65" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B798" s="64"/>
       <c r="C798" s="65"/>
@@ -8882,21 +8873,21 @@
     </row>
     <row r="800" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A800" s="65" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B800" s="64"/>
       <c r="C800" s="65"/>
     </row>
     <row r="801" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A801" s="65" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B801" s="64"/>
       <c r="C801" s="65"/>
     </row>
     <row r="803" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A803" s="65" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B803" s="64"/>
       <c r="C803" s="65"/>
@@ -8906,7 +8897,7 @@
     </row>
     <row r="804" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A804" s="65" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B804" s="64"/>
       <c r="C804" s="65"/>
@@ -8916,7 +8907,7 @@
     </row>
     <row r="805" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A805" s="65" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B805" s="64"/>
       <c r="C805" s="65"/>
@@ -8926,7 +8917,7 @@
     </row>
     <row r="806" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A806" s="65" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B806" s="64"/>
       <c r="C806" s="65"/>
@@ -8936,7 +8927,7 @@
     </row>
     <row r="807" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A807" s="65" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B807" s="64"/>
       <c r="C807" s="65"/>
@@ -8946,7 +8937,7 @@
     </row>
     <row r="808" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A808" s="65" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B808" s="64"/>
       <c r="C808" s="65"/>
@@ -8956,7 +8947,7 @@
     </row>
     <row r="809" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A809" s="65" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B809" s="64"/>
       <c r="C809" s="65"/>
@@ -8966,7 +8957,7 @@
     </row>
     <row r="810" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A810" s="65" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B810" s="64"/>
       <c r="C810" s="65"/>
@@ -8976,7 +8967,7 @@
     </row>
     <row r="811" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A811" s="65" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B811" s="64"/>
       <c r="C811" s="65"/>
@@ -8986,7 +8977,7 @@
     </row>
     <row r="812" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A812" s="65" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B812" s="64"/>
       <c r="C812" s="65"/>
@@ -8996,168 +8987,168 @@
     </row>
     <row r="814" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A814" s="62" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B814" s="64"/>
       <c r="C814" s="65"/>
     </row>
     <row r="815" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A815" s="62" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B815" s="64"/>
       <c r="C815" s="65"/>
     </row>
     <row r="816" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A816" s="62" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B816" s="64"/>
       <c r="C816" s="65"/>
     </row>
     <row r="817" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A817" s="62" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B817" s="64"/>
       <c r="C817" s="65"/>
     </row>
     <row r="818" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A818" s="62" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B818" s="64"/>
       <c r="C818" s="65"/>
     </row>
     <row r="819" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A819" s="62" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B819" s="64"/>
       <c r="C819" s="65"/>
     </row>
     <row r="820" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A820" s="62" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B820" s="64"/>
       <c r="C820" s="65"/>
     </row>
     <row r="822" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A822" s="65" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B822" s="64"/>
       <c r="C822" s="65"/>
     </row>
     <row r="823" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A823" s="65" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B823" s="64"/>
       <c r="C823" s="65"/>
     </row>
     <row r="824" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A824" s="65" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B824" s="64"/>
       <c r="C824" s="65"/>
     </row>
     <row r="825" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A825" s="65" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B825" s="64"/>
       <c r="C825" s="65"/>
     </row>
     <row r="826" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A826" s="65" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B826" s="64"/>
       <c r="C826" s="65"/>
     </row>
     <row r="828" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A828" s="62" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B828" s="64"/>
       <c r="C828" s="67"/>
     </row>
     <row r="829" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A829" s="62" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B829" s="64"/>
       <c r="C829" s="65"/>
     </row>
     <row r="830" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A830" s="62" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B830" s="64"/>
       <c r="C830" s="65"/>
     </row>
     <row r="831" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A831" s="62" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B831" s="64"/>
       <c r="C831" s="65"/>
     </row>
     <row r="832" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A832" s="62" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B832" s="64"/>
       <c r="C832" s="65"/>
     </row>
     <row r="833" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A833" s="62" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B833" s="64"/>
       <c r="C833" s="65"/>
     </row>
     <row r="834" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A834" s="62" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B834" s="64"/>
       <c r="C834" s="65"/>
     </row>
     <row r="835" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A835" s="65" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B835" s="64"/>
       <c r="C835" s="65"/>
     </row>
     <row r="837" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A837" s="62" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B837" s="64"/>
       <c r="C837" s="67"/>
     </row>
     <row r="838" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A838" s="62" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B838" s="64"/>
       <c r="C838" s="65"/>
     </row>
     <row r="839" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A839" s="62" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B839" s="64"/>
       <c r="C839" s="65"/>
     </row>
     <row r="840" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A840" s="62" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B840" s="64"/>
       <c r="C840" s="65"/>
@@ -9178,12 +9169,12 @@
     </row>
     <row r="845" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A845" s="78" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="846" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A846" s="78" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
   </sheetData>
@@ -9196,8 +9187,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9221,7 +9212,7 @@
         <v>71</v>
       </c>
       <c r="D1" s="40" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>25</v>
@@ -9235,7 +9226,7 @@
         <v>179</v>
       </c>
       <c r="C2" s="68">
-        <v>202009211</v>
+        <v>202101081</v>
       </c>
       <c r="D2" s="69" t="s">
         <v>289</v>

--- a/xlsx/form_n_devolucao.xlsx
+++ b/xlsx/form_n_devolucao.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23929"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Terra_Share\projects\CaVaTeCo_Collect\projects\monitor_forms\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Terra_Share\projects\CaVaTeCo_Collect\projects\odk_forms_cesc_niassa\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BAF7442-676C-4A38-A8E2-034FDEE2729E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D62BF734-A058-4207-A3C4-E44F1AAB410B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -914,9 +914,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="32" x14ac:knownFonts="1">
+  <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1174,412 +1181,413 @@
   </borders>
   <cellStyleXfs count="244">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="233" applyFont="1"/>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="234" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="233" applyFont="1"/>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="234" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="234" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="234" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="243"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="243" applyFill="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="243" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="243" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="243" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="32" fillId="0" borderId="0" xfId="243" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="242" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="243"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="243" applyFill="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="243" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="243" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="243" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="31" fillId="0" borderId="0" xfId="243" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="242" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="243" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="243" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="244">
@@ -2165,11 +2173,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S124"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C92" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L109" sqref="L109"/>
+      <selection pane="bottomRight" activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2371,7 +2379,7 @@
       <c r="J13" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="L13" s="70" t="s">
+      <c r="L13" s="80" t="s">
         <v>287</v>
       </c>
     </row>
@@ -4181,7 +4189,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D32" sqref="D32"/>
+      <selection pane="bottomRight" activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9187,8 +9195,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
